--- a/Project/DevOps.xlsx
+++ b/Project/DevOps.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chitra-GKT/Documents/BackUp from Old/2019 GKT/New Digital/POI/DevOps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e3029043\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2604B2-429F-0E4A-82A1-C54A08D5B139}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACC768A-5F43-4E09-A5AF-87BB6F60D45C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBM DevOps" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IBM DevOps'!$B$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IBM DevOps'!$B$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Course Name</t>
   </si>
@@ -325,12 +325,62 @@
   <si>
     <t>Experiences Participants from the field of Devops.</t>
   </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>No of Slides</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 70 Slides &amp; Linux Shell
+Scripting Supporting Document)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 70 Slides &amp; C Porgramming
+ Supporting Document)</t>
+  </si>
+  <si>
+    <t>( 50 Slides)</t>
+  </si>
+  <si>
+    <t>( 70 Slides )</t>
+  </si>
+  <si>
+    <t>( 30 Slides)</t>
+  </si>
+  <si>
+    <t>( 40 Slides)</t>
+  </si>
+  <si>
+    <t>( 80 Slides)</t>
+  </si>
+  <si>
+    <t>( 60 Slides)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( 50 Slides)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1000 Approx Slides</t>
+  </si>
+  <si>
+    <t>25 Days</t>
+  </si>
+  <si>
+    <t>200 Hours</t>
+  </si>
+  <si>
+    <t>135000 - 150000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -361,8 +411,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +451,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -469,11 +533,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -481,9 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -531,6 +605,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,13 +651,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2054678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>206481</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2054678</xdr:rowOff>
@@ -867,50 +965,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="13" style="16" customWidth="1"/>
-    <col min="6" max="6" width="56.6640625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="48.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="28.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="204" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:8" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2">
@@ -919,114 +1026,156 @@
       <c r="E2" s="2">
         <v>16</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19">
+        <v>12000</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="238" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:8" ht="237.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="19">
+        <v>12000</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:8" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:8" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="171" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:8" ht="171" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>16</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2">
@@ -1035,114 +1184,156 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="1:8" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="208.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:8" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
+    <row r="14" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:8" ht="226.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>16</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="2">
@@ -1151,92 +1342,148 @@
       <c r="E16" s="2">
         <v>8</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>16</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4">
+        <v>12000</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4">
+        <v>6000</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="289" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="1:8" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="20">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="20">
         <v>8</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="20">
+        <v>6000</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:F21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:H21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
